--- a/excels/rl_50_r_bonus_base.xlsx
+++ b/excels/rl_50_r_bonus_base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-165" windowWidth="27720" windowHeight="12315" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-165" windowWidth="27720" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="time" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="196">
   <si>
     <t>maze</t>
   </si>
@@ -1061,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5265,8 +5265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56:F60"/>
+    <sheetView tabSelected="1" topLeftCell="C44" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:R82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5275,7 +5275,7 @@
     <col min="2" max="6" width="14.625" customWidth="1"/>
     <col min="7" max="7" width="3.25" customWidth="1"/>
     <col min="8" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="2.75" customWidth="1"/>
+    <col min="13" max="13" width="6.875" bestFit="1" customWidth="1"/>
     <col min="14" max="18" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5313,6 +5313,9 @@
       <c r="L1" t="s">
         <v>106</v>
       </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
       <c r="N1" t="s">
         <v>107</v>
       </c>
@@ -5363,6 +5366,9 @@
       <c r="L2">
         <v>10015</v>
       </c>
+      <c r="M2" t="s">
+        <v>112</v>
+      </c>
       <c r="N2">
         <v>10345</v>
       </c>
@@ -5413,6 +5419,9 @@
       <c r="L3">
         <v>4690</v>
       </c>
+      <c r="M3" t="s">
+        <v>113</v>
+      </c>
       <c r="N3">
         <v>1519</v>
       </c>
@@ -5463,6 +5472,9 @@
       <c r="L4">
         <v>10119</v>
       </c>
+      <c r="M4" t="s">
+        <v>114</v>
+      </c>
       <c r="N4">
         <v>1576</v>
       </c>
@@ -5513,6 +5525,9 @@
       <c r="L5">
         <v>4289</v>
       </c>
+      <c r="M5" t="s">
+        <v>115</v>
+      </c>
       <c r="N5">
         <v>178</v>
       </c>
@@ -5563,6 +5578,9 @@
       <c r="L6">
         <v>1374</v>
       </c>
+      <c r="M6" t="s">
+        <v>116</v>
+      </c>
       <c r="N6">
         <v>224</v>
       </c>
@@ -5613,6 +5631,9 @@
       <c r="L7">
         <v>295</v>
       </c>
+      <c r="M7" t="s">
+        <v>117</v>
+      </c>
       <c r="N7">
         <v>92</v>
       </c>
@@ -5663,6 +5684,9 @@
       <c r="L8">
         <v>102</v>
       </c>
+      <c r="M8" t="s">
+        <v>118</v>
+      </c>
       <c r="N8">
         <v>104</v>
       </c>
@@ -5713,6 +5737,9 @@
       <c r="L9">
         <v>102</v>
       </c>
+      <c r="M9" t="s">
+        <v>119</v>
+      </c>
       <c r="N9">
         <v>96</v>
       </c>
@@ -5763,6 +5790,9 @@
       <c r="L10">
         <v>102</v>
       </c>
+      <c r="M10" t="s">
+        <v>120</v>
+      </c>
       <c r="N10">
         <v>84</v>
       </c>
@@ -5813,6 +5843,9 @@
       <c r="L11">
         <v>9435</v>
       </c>
+      <c r="M11" t="s">
+        <v>121</v>
+      </c>
       <c r="N11">
         <v>1084</v>
       </c>
@@ -5863,6 +5896,9 @@
       <c r="L12">
         <v>15580</v>
       </c>
+      <c r="M12" t="s">
+        <v>122</v>
+      </c>
       <c r="N12">
         <v>551</v>
       </c>
@@ -5913,6 +5949,9 @@
       <c r="L13">
         <v>21462</v>
       </c>
+      <c r="M13" t="s">
+        <v>123</v>
+      </c>
       <c r="N13">
         <v>1832</v>
       </c>
@@ -5963,6 +6002,9 @@
       <c r="L14">
         <v>8536</v>
       </c>
+      <c r="M14" t="s">
+        <v>124</v>
+      </c>
       <c r="N14">
         <v>128</v>
       </c>
@@ -6013,6 +6055,9 @@
       <c r="L15">
         <v>2813</v>
       </c>
+      <c r="M15" t="s">
+        <v>125</v>
+      </c>
       <c r="N15">
         <v>858</v>
       </c>
@@ -6063,6 +6108,9 @@
       <c r="L16">
         <v>398</v>
       </c>
+      <c r="M16" t="s">
+        <v>126</v>
+      </c>
       <c r="N16">
         <v>134</v>
       </c>
@@ -6113,6 +6161,9 @@
       <c r="L17">
         <v>102</v>
       </c>
+      <c r="M17" t="s">
+        <v>127</v>
+      </c>
       <c r="N17">
         <v>84</v>
       </c>
@@ -6163,6 +6214,9 @@
       <c r="L18">
         <v>102</v>
       </c>
+      <c r="M18" t="s">
+        <v>128</v>
+      </c>
       <c r="N18">
         <v>98</v>
       </c>
@@ -6213,6 +6267,9 @@
       <c r="L19">
         <v>102</v>
       </c>
+      <c r="M19" t="s">
+        <v>129</v>
+      </c>
       <c r="N19">
         <v>84</v>
       </c>
@@ -6263,6 +6320,9 @@
       <c r="L20">
         <v>14550</v>
       </c>
+      <c r="M20" t="s">
+        <v>130</v>
+      </c>
       <c r="N20">
         <v>4289</v>
       </c>
@@ -6313,6 +6373,9 @@
       <c r="L21">
         <v>19946</v>
       </c>
+      <c r="M21" t="s">
+        <v>131</v>
+      </c>
       <c r="N21">
         <v>948</v>
       </c>
@@ -6363,6 +6426,9 @@
       <c r="L22">
         <v>3469</v>
       </c>
+      <c r="M22" t="s">
+        <v>132</v>
+      </c>
       <c r="N22">
         <v>2451</v>
       </c>
@@ -6413,6 +6479,9 @@
       <c r="L23">
         <v>7875</v>
       </c>
+      <c r="M23" t="s">
+        <v>133</v>
+      </c>
       <c r="N23">
         <v>1144</v>
       </c>
@@ -6463,6 +6532,9 @@
       <c r="L24">
         <v>3506</v>
       </c>
+      <c r="M24" t="s">
+        <v>134</v>
+      </c>
       <c r="N24">
         <v>172</v>
       </c>
@@ -6513,6 +6585,9 @@
       <c r="L25">
         <v>397</v>
       </c>
+      <c r="M25" t="s">
+        <v>135</v>
+      </c>
       <c r="N25">
         <v>100</v>
       </c>
@@ -6563,6 +6638,9 @@
       <c r="L26">
         <v>102</v>
       </c>
+      <c r="M26" t="s">
+        <v>136</v>
+      </c>
       <c r="N26">
         <v>86</v>
       </c>
@@ -6613,6 +6691,9 @@
       <c r="L27">
         <v>102</v>
       </c>
+      <c r="M27" t="s">
+        <v>137</v>
+      </c>
       <c r="N27">
         <v>108</v>
       </c>
@@ -6663,6 +6744,9 @@
       <c r="L28">
         <v>102</v>
       </c>
+      <c r="M28" t="s">
+        <v>138</v>
+      </c>
       <c r="N28">
         <v>90</v>
       </c>
@@ -6713,6 +6797,9 @@
       <c r="L29">
         <v>15410</v>
       </c>
+      <c r="M29" t="s">
+        <v>139</v>
+      </c>
       <c r="N29">
         <v>2126</v>
       </c>
@@ -6763,6 +6850,9 @@
       <c r="L30">
         <v>23934</v>
       </c>
+      <c r="M30" t="s">
+        <v>140</v>
+      </c>
       <c r="N30">
         <v>6115</v>
       </c>
@@ -6813,6 +6903,9 @@
       <c r="L31">
         <v>14771</v>
       </c>
+      <c r="M31" t="s">
+        <v>141</v>
+      </c>
       <c r="N31">
         <v>1166</v>
       </c>
@@ -6863,6 +6956,9 @@
       <c r="L32">
         <v>2692</v>
       </c>
+      <c r="M32" t="s">
+        <v>142</v>
+      </c>
       <c r="N32">
         <v>650</v>
       </c>
@@ -6913,6 +7009,9 @@
       <c r="L33">
         <v>4416</v>
       </c>
+      <c r="M33" t="s">
+        <v>143</v>
+      </c>
       <c r="N33">
         <v>556</v>
       </c>
@@ -6963,6 +7062,9 @@
       <c r="L34">
         <v>617</v>
       </c>
+      <c r="M34" t="s">
+        <v>144</v>
+      </c>
       <c r="N34">
         <v>274</v>
       </c>
@@ -7013,6 +7115,9 @@
       <c r="L35">
         <v>102</v>
       </c>
+      <c r="M35" t="s">
+        <v>145</v>
+      </c>
       <c r="N35">
         <v>82</v>
       </c>
@@ -7063,6 +7168,9 @@
       <c r="L36">
         <v>102</v>
       </c>
+      <c r="M36" t="s">
+        <v>146</v>
+      </c>
       <c r="N36">
         <v>88</v>
       </c>
@@ -7113,6 +7221,9 @@
       <c r="L37">
         <v>102</v>
       </c>
+      <c r="M37" t="s">
+        <v>147</v>
+      </c>
       <c r="N37">
         <v>82</v>
       </c>
@@ -7163,6 +7274,9 @@
       <c r="L38">
         <v>43183</v>
       </c>
+      <c r="M38" t="s">
+        <v>148</v>
+      </c>
       <c r="N38">
         <v>381</v>
       </c>
@@ -7213,6 +7327,9 @@
       <c r="L39">
         <v>21772</v>
       </c>
+      <c r="M39" t="s">
+        <v>149</v>
+      </c>
       <c r="N39">
         <v>2019</v>
       </c>
@@ -7263,6 +7380,9 @@
       <c r="L40">
         <v>5641</v>
       </c>
+      <c r="M40" t="s">
+        <v>150</v>
+      </c>
       <c r="N40">
         <v>1181</v>
       </c>
@@ -7313,6 +7433,9 @@
       <c r="L41">
         <v>8015</v>
       </c>
+      <c r="M41" t="s">
+        <v>151</v>
+      </c>
       <c r="N41">
         <v>952</v>
       </c>
@@ -7363,6 +7486,9 @@
       <c r="L42">
         <v>2007</v>
       </c>
+      <c r="M42" t="s">
+        <v>152</v>
+      </c>
       <c r="N42">
         <v>894</v>
       </c>
@@ -7413,6 +7539,9 @@
       <c r="L43">
         <v>280</v>
       </c>
+      <c r="M43" t="s">
+        <v>153</v>
+      </c>
       <c r="N43">
         <v>144</v>
       </c>
@@ -7463,6 +7592,9 @@
       <c r="L44">
         <v>102</v>
       </c>
+      <c r="M44" t="s">
+        <v>154</v>
+      </c>
       <c r="N44">
         <v>84</v>
       </c>
@@ -7513,6 +7645,9 @@
       <c r="L45">
         <v>102</v>
       </c>
+      <c r="M45" t="s">
+        <v>155</v>
+      </c>
       <c r="N45">
         <v>82</v>
       </c>
@@ -7563,6 +7698,9 @@
       <c r="L46">
         <v>102</v>
       </c>
+      <c r="M46" t="s">
+        <v>156</v>
+      </c>
       <c r="N46">
         <v>82</v>
       </c>
@@ -7613,6 +7751,9 @@
       <c r="L47">
         <v>30364</v>
       </c>
+      <c r="M47" t="s">
+        <v>157</v>
+      </c>
       <c r="N47">
         <v>5594</v>
       </c>
@@ -7663,6 +7804,9 @@
       <c r="L48">
         <v>3697</v>
       </c>
+      <c r="M48" t="s">
+        <v>158</v>
+      </c>
       <c r="N48">
         <v>536</v>
       </c>
@@ -7713,6 +7857,9 @@
       <c r="L49">
         <v>10836</v>
       </c>
+      <c r="M49" t="s">
+        <v>159</v>
+      </c>
       <c r="N49">
         <v>1370</v>
       </c>
@@ -7763,6 +7910,9 @@
       <c r="L50">
         <v>11832</v>
       </c>
+      <c r="M50" t="s">
+        <v>160</v>
+      </c>
       <c r="N50">
         <v>194</v>
       </c>
@@ -7813,6 +7963,9 @@
       <c r="L51">
         <v>3674</v>
       </c>
+      <c r="M51" t="s">
+        <v>161</v>
+      </c>
       <c r="N51">
         <v>380</v>
       </c>
@@ -7863,6 +8016,9 @@
       <c r="L52">
         <v>312</v>
       </c>
+      <c r="M52" t="s">
+        <v>162</v>
+      </c>
       <c r="N52">
         <v>208</v>
       </c>
@@ -7913,6 +8069,9 @@
       <c r="L53">
         <v>102</v>
       </c>
+      <c r="M53" t="s">
+        <v>163</v>
+      </c>
       <c r="N53">
         <v>180</v>
       </c>
@@ -7963,6 +8122,9 @@
       <c r="L54">
         <v>102</v>
       </c>
+      <c r="M54" t="s">
+        <v>164</v>
+      </c>
       <c r="N54">
         <v>82</v>
       </c>
@@ -8013,6 +8175,9 @@
       <c r="L55">
         <v>102</v>
       </c>
+      <c r="M55" t="s">
+        <v>165</v>
+      </c>
       <c r="N55">
         <v>82</v>
       </c>
@@ -8063,6 +8228,9 @@
       <c r="L56">
         <v>572</v>
       </c>
+      <c r="M56" t="s">
+        <v>166</v>
+      </c>
       <c r="N56">
         <v>2518</v>
       </c>
@@ -8113,6 +8281,9 @@
       <c r="L57">
         <v>8715</v>
       </c>
+      <c r="M57" t="s">
+        <v>167</v>
+      </c>
       <c r="N57">
         <v>5868</v>
       </c>
@@ -8163,6 +8334,9 @@
       <c r="L58">
         <v>6566</v>
       </c>
+      <c r="M58" t="s">
+        <v>168</v>
+      </c>
       <c r="N58">
         <v>1438</v>
       </c>
@@ -8213,6 +8387,9 @@
       <c r="L59">
         <v>4517</v>
       </c>
+      <c r="M59" t="s">
+        <v>169</v>
+      </c>
       <c r="N59">
         <v>208</v>
       </c>
@@ -8263,6 +8440,9 @@
       <c r="L60">
         <v>5797</v>
       </c>
+      <c r="M60" t="s">
+        <v>170</v>
+      </c>
       <c r="N60">
         <v>236</v>
       </c>
@@ -8313,6 +8493,9 @@
       <c r="L61">
         <v>298</v>
       </c>
+      <c r="M61" t="s">
+        <v>171</v>
+      </c>
       <c r="N61">
         <v>98</v>
       </c>
@@ -8363,6 +8546,9 @@
       <c r="L62">
         <v>102</v>
       </c>
+      <c r="M62" t="s">
+        <v>172</v>
+      </c>
       <c r="N62">
         <v>82</v>
       </c>
@@ -8413,6 +8599,9 @@
       <c r="L63">
         <v>102</v>
       </c>
+      <c r="M63" t="s">
+        <v>173</v>
+      </c>
       <c r="N63">
         <v>82</v>
       </c>
@@ -8463,6 +8652,9 @@
       <c r="L64">
         <v>102</v>
       </c>
+      <c r="M64" t="s">
+        <v>174</v>
+      </c>
       <c r="N64">
         <v>84</v>
       </c>
@@ -8513,6 +8705,9 @@
       <c r="L65">
         <v>17821</v>
       </c>
+      <c r="M65" t="s">
+        <v>175</v>
+      </c>
       <c r="N65">
         <v>746</v>
       </c>
@@ -8563,6 +8758,9 @@
       <c r="L66">
         <v>14096</v>
       </c>
+      <c r="M66" t="s">
+        <v>176</v>
+      </c>
       <c r="N66">
         <v>935</v>
       </c>
@@ -8613,6 +8811,9 @@
       <c r="L67">
         <v>12625</v>
       </c>
+      <c r="M67" t="s">
+        <v>177</v>
+      </c>
       <c r="N67">
         <v>610</v>
       </c>
@@ -8663,6 +8864,9 @@
       <c r="L68">
         <v>12864</v>
       </c>
+      <c r="M68" t="s">
+        <v>178</v>
+      </c>
       <c r="N68">
         <v>912</v>
       </c>
@@ -8713,6 +8917,9 @@
       <c r="L69">
         <v>6370</v>
       </c>
+      <c r="M69" t="s">
+        <v>179</v>
+      </c>
       <c r="N69">
         <v>252</v>
       </c>
@@ -8763,6 +8970,9 @@
       <c r="L70">
         <v>242</v>
       </c>
+      <c r="M70" t="s">
+        <v>180</v>
+      </c>
       <c r="N70">
         <v>82</v>
       </c>
@@ -8813,6 +9023,9 @@
       <c r="L71">
         <v>102</v>
       </c>
+      <c r="M71" t="s">
+        <v>181</v>
+      </c>
       <c r="N71">
         <v>82</v>
       </c>
@@ -8863,6 +9076,9 @@
       <c r="L72">
         <v>102</v>
       </c>
+      <c r="M72" t="s">
+        <v>182</v>
+      </c>
       <c r="N72">
         <v>116</v>
       </c>
@@ -8913,6 +9129,9 @@
       <c r="L73">
         <v>102</v>
       </c>
+      <c r="M73" t="s">
+        <v>183</v>
+      </c>
       <c r="N73">
         <v>82</v>
       </c>
@@ -8963,6 +9182,9 @@
       <c r="L74">
         <v>9007</v>
       </c>
+      <c r="M74" t="s">
+        <v>184</v>
+      </c>
       <c r="N74">
         <v>3096</v>
       </c>
@@ -9013,6 +9235,9 @@
       <c r="L75">
         <v>14427</v>
       </c>
+      <c r="M75" t="s">
+        <v>185</v>
+      </c>
       <c r="N75">
         <v>5309</v>
       </c>
@@ -9063,6 +9288,9 @@
       <c r="L76">
         <v>11253</v>
       </c>
+      <c r="M76" t="s">
+        <v>186</v>
+      </c>
       <c r="N76">
         <v>1667</v>
       </c>
@@ -9113,6 +9341,9 @@
       <c r="L77">
         <v>15927</v>
       </c>
+      <c r="M77" t="s">
+        <v>187</v>
+      </c>
       <c r="N77">
         <v>1420</v>
       </c>
@@ -9163,6 +9394,9 @@
       <c r="L78">
         <v>2433</v>
       </c>
+      <c r="M78" t="s">
+        <v>188</v>
+      </c>
       <c r="N78">
         <v>274</v>
       </c>
@@ -9213,6 +9447,9 @@
       <c r="L79">
         <v>284</v>
       </c>
+      <c r="M79" t="s">
+        <v>189</v>
+      </c>
       <c r="N79">
         <v>82</v>
       </c>
@@ -9263,6 +9500,9 @@
       <c r="L80">
         <v>102</v>
       </c>
+      <c r="M80" t="s">
+        <v>190</v>
+      </c>
       <c r="N80">
         <v>82</v>
       </c>
@@ -9313,6 +9553,9 @@
       <c r="L81">
         <v>102</v>
       </c>
+      <c r="M81" t="s">
+        <v>191</v>
+      </c>
       <c r="N81">
         <v>134</v>
       </c>
@@ -9362,6 +9605,9 @@
       </c>
       <c r="L82">
         <v>102</v>
+      </c>
+      <c r="M82" t="s">
+        <v>192</v>
       </c>
       <c r="N82">
         <v>84</v>
@@ -13814,7 +14060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
